--- a/NUVB.xlsx
+++ b/NUVB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684BF62A-CEBD-4840-9CFA-96A9A9CD4A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2DAAAA-1208-4927-87F1-B58DE6223E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32805" yWindow="1605" windowWidth="30975" windowHeight="19335" xr2:uid="{039BC6D1-97E8-4722-AE72-A61F9830DF8C}"/>
+    <workbookView xWindow="-27990" yWindow="930" windowWidth="27465" windowHeight="18600" xr2:uid="{039BC6D1-97E8-4722-AE72-A61F9830DF8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Clinical Trials</t>
   </si>
   <si>
-    <t>Phase II "TRUST-II"</t>
-  </si>
-  <si>
     <t>Competition</t>
   </si>
   <si>
@@ -129,20 +126,44 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/38822758/</t>
   </si>
   <si>
-    <t>Phase II "TRUST-I" n=173 Chinese ROS1+ NSCLC - NCT04395677</t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/38898120/</t>
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/38350336/</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Filing NDA</t>
+  </si>
+  <si>
+    <t>Phase II "TRUST-II" n=ROS1-NSCLC - ESMO 2024 poster</t>
+  </si>
+  <si>
+    <t>pooled data n=337 with TRUST-I and TRUST-II - data as of 6/7/24</t>
+  </si>
+  <si>
+    <t>600mg qd, 21 day cycle</t>
+  </si>
+  <si>
+    <t>n=160 TKI-naïve: 89% RR (77% with brain mets shrank), 44mo PFS, 46mo DOR</t>
+  </si>
+  <si>
+    <t>n=113 TKI-pretreated (crizotinib, entrectinib): 56% RR (66% with brain mets shrank, 62% with G2032R). 17 months DOR, 10 months PFS</t>
+  </si>
+  <si>
+    <t>Phase II "TRUST-I" n=173 Chinese ROS1+ NSCLC - NCT04395677 - ESMO 2024 poster - J Clin Oncol</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -164,6 +185,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -181,12 +209,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -195,6 +309,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,36 +661,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBAF51F-93CC-41B5-90B6-C3B559449A01}">
   <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -575,27 +718,37 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="3">
         <f>+K2*K3</f>
-        <v>747.73538699999995</v>
+        <v>757.70519216000002</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -608,12 +761,19 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -625,15 +785,38 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3">
         <f>+K4-K5+K6</f>
-        <v>182.20038699999998</v>
-      </c>
+        <v>192.17019216000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="J9" t="s">
         <v>8</v>
       </c>
@@ -661,15 +844,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="taletrectinib!A1" display="taletrectinib" xr:uid="{DBFE0052-131D-4C42-8E17-D24FB2469146}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482033C8-D949-4F86-B90C-1B672E08183C}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -697,18 +885,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -718,27 +906,53 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
